--- a/data/trans_dic/P39A3_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P39A3_2023-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>89,07; 93,89</t>
+          <t>89,29; 94,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>90,53; 93,72</t>
+          <t>90,27; 93,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>90,68; 93,35</t>
+          <t>90,7; 93,34</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>90,16; 93,07</t>
+          <t>90,21; 92,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>88,45; 92,35</t>
+          <t>88,15; 92,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90,09; 92,27</t>
+          <t>89,9; 92,31</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>88,6; 92,86</t>
+          <t>88,38; 92,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,42; 90,52</t>
+          <t>86,69; 90,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>88,2; 91,23</t>
+          <t>88,27; 91,24</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,51; 92,53</t>
+          <t>90,5; 92,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>89,23; 91,83</t>
+          <t>89,33; 91,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>90,07; 91,83</t>
+          <t>90,15; 91,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A3_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P39A3_2023-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>89,29; 94,02</t>
+          <t>89,07; 93,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>90,27; 93,61</t>
+          <t>90,53; 93,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>90,7; 93,34</t>
+          <t>90,68; 93,35</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>90,21; 92,97</t>
+          <t>90,16; 93,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>88,15; 92,37</t>
+          <t>88,45; 92,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>89,9; 92,31</t>
+          <t>90,09; 92,27</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>88,38; 92,85</t>
+          <t>88,6; 92,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,69; 90,82</t>
+          <t>86,42; 90,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>88,27; 91,24</t>
+          <t>88,2; 91,23</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,5; 92,64</t>
+          <t>90,51; 92,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>89,33; 91,91</t>
+          <t>89,23; 91,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>90,15; 91,87</t>
+          <t>90,07; 91,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A3_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P39A3_2023-Estudios-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>91,8%</t>
+          <t>91,83%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>92,31%</t>
+          <t>92,21%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>92,11%</t>
+          <t>92,06%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>89,07; 93,89</t>
+          <t>89,12; 93,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>90,53; 93,72</t>
+          <t>90,42; 93,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>90,68; 93,35</t>
+          <t>90,59; 93,31</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>91,69%</t>
+          <t>92,33%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>90,8%</t>
+          <t>88,77%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>91,24%</t>
+          <t>90,57%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>90,16; 93,07</t>
+          <t>90,76; 94,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>88,45; 92,35</t>
+          <t>77,74; 92,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90,09; 92,27</t>
+          <t>85,53; 92,65</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>90,95%</t>
+          <t>91,19%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>88,8%</t>
+          <t>88,82%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>89,84%</t>
+          <t>89,99%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>88,6; 92,86</t>
+          <t>88,93; 93,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,42; 90,52</t>
+          <t>86,53; 90,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>88,2; 91,23</t>
+          <t>88,36; 91,37</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>91,55%</t>
+          <t>92,04%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>89,42%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>90,7%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>91,1%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,51; 92,53</t>
+          <t>90,82; 93,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>89,23; 91,83</t>
+          <t>82,93; 91,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>90,07; 91,83</t>
+          <t>86,23; 92,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A3_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P39A3_2023-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>89,12; 93,89</t>
+          <t>89,19; 94,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>90,42; 93,62</t>
+          <t>90,47; 93,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>90,59; 93,31</t>
+          <t>90,58; 93,4</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>90,76; 94,81</t>
+          <t>90,64; 94,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>77,74; 92,39</t>
+          <t>78,64; 92,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>85,53; 92,65</t>
+          <t>85,46; 92,55</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>88,93; 93,03</t>
+          <t>88,73; 92,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,53; 90,62</t>
+          <t>86,72; 90,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>88,36; 91,37</t>
+          <t>88,32; 91,39</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,82; 93,89</t>
+          <t>90,8; 93,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>82,93; 91,68</t>
+          <t>82,51; 91,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,23; 92,1</t>
+          <t>86,92; 92,12</t>
         </is>
       </c>
     </row>
@@ -760,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que sí diría que estar con dolor o malestar en el pecho es un síntoma de que a alguien le está dando un ataque al corazón</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1087</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1612</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>405300</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>585001</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>990300</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>393616; 415519</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>573929; 595211</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>974385; 1004749</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1712</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2505</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4217</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2013853</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1882394</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3896247</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1976947; 2063696</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1667608; 1960834</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3676309; 3981400</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1438</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>574956</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>575577</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1150533</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>559479; 586242</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>561926; 587574</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1129242; 1168414</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2825</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4442</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7267</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2994107</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3042973</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>6037080</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2953920; 3049575</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2807868; 3122854</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>5785078; 6131743</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>